--- a/StructureDefinition-profile-CompartmentDefinition.xlsx
+++ b/StructureDefinition-profile-CompartmentDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6503647-06:00</t>
+    <t>2026-02-09T22:05:43.0345571-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,38 +425,87 @@
     <t>CompartmentDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CompartmentDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `CompartmentDefinition.versionAlgorithm[x]` is will have a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.title|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CompartmentDefinition.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the capability statement.</t>
+  </si>
+  <si>
+    <t>Element `CompartmentDefinition.title` is will have a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CompartmentDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -739,20 +788,13 @@
     <t>CompartmentDefinition.code.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.code|0.0.1-snapshot-3}
@@ -762,8 +804,7 @@
     <t>Cross-version extension for CompartmentDefinition.code from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `CompartmentDefinition.code` is mapped to FHIR R4 element `CompartmentDefinition.code`.</t>
   </si>
   <si>
     <t>CompartmentDefinition.code.value</t>
@@ -812,7 +853,42 @@
     <t>CompartmentDefinition.resource.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>CompartmentDefinition.resource.extension:startParam</t>
+  </si>
+  <si>
+    <t>startParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource.startParam|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CompartmentDefinition.resource.startParam from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Search Parameter for mapping requests made with $everything.start (e.g. on [Patient.$everything](https://hl7.org/fhir/patient-operation-everything.html)).</t>
+  </si>
+  <si>
+    <t>Element `CompartmentDefinition.resource.startParam` is will have a context of CompartmentDefinition.resource based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.resource.extension:endParam</t>
+  </si>
+  <si>
+    <t>endParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource.endParam|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CompartmentDefinition.resource.endParam from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Search Parameter for mapping requests made with $everything.end (e.g. on [Patient.$everything](https://hl7.org/fhir/patient-operation-everything.html)).</t>
+  </si>
+  <si>
+    <t>Element `CompartmentDefinition.resource.endParam` is will have a context of CompartmentDefinition.resource based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
   </si>
   <si>
     <t>CompartmentDefinition.resource.modifierExtension</t>
@@ -853,11 +929,17 @@
     <t>CompartmentDefinition.resource.code.extension</t>
   </si>
   <si>
+    <t>CompartmentDefinition.resource.code.extension:code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource.code|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for CompartmentDefinition.resource.code from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CompartmentDefinition.resource.code` is mapped to FHIR R4 element `CompartmentDefinition.resource.code`.</t>
   </si>
   <si>
     <t>CompartmentDefinition.resource.code.value</t>
@@ -1188,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1197,9 +1279,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.76171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.76171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1207,7 +1289,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2190,7 +2272,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2209,17 +2291,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2256,16 +2336,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2286,7 +2364,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2303,43 +2381,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2387,7 +2465,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2396,7 +2474,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2405,7 +2483,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2419,18 +2497,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -2442,23 +2522,21 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2506,19 +2584,19 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2527,10 +2605,10 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -2538,44 +2616,46 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2623,31 +2703,31 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -2655,10 +2735,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2681,19 +2761,19 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -2742,7 +2822,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>88</v>
@@ -2751,7 +2831,7 @@
         <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>100</v>
@@ -2763,10 +2843,10 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -2774,10 +2854,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2785,7 +2865,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
@@ -2794,22 +2874,22 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2835,13 +2915,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -2859,10 +2939,10 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>88</v>
@@ -2902,7 +2982,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>88</v>
@@ -2917,16 +2997,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>178</v>
@@ -2981,13 +3061,13 @@
         <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>100</v>
@@ -2999,10 +3079,10 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3010,18 +3090,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3030,22 +3110,22 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3071,13 +3151,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3095,10 +3175,10 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>88</v>
@@ -3153,16 +3233,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>193</v>
@@ -3253,14 +3333,14 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3272,16 +3352,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3337,7 +3417,7 @@
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
@@ -3352,10 +3432,10 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3363,10 +3443,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3386,21 +3466,23 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3448,7 +3530,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3469,10 +3551,10 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3480,10 +3562,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3506,20 +3588,18 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3567,7 +3647,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3588,7 +3668,7 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3599,10 +3679,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3625,16 +3705,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3684,7 +3764,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3705,21 +3785,21 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3727,10 +3807,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3742,18 +3822,20 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3777,13 +3859,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -3801,13 +3883,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -3822,7 +3904,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -3833,10 +3915,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3859,15 +3941,17 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3916,7 +4000,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3928,7 +4012,7 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -3937,21 +4021,21 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3962,7 +4046,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -3971,18 +4055,20 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4007,41 +4093,43 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4061,10 +4149,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4072,7 +4160,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4087,17 +4175,15 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4146,19 +4232,19 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4178,10 +4264,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4189,10 +4275,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4204,13 +4290,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4249,31 +4335,29 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4293,12 +4377,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4316,19 +4402,19 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4378,19 +4464,19 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -4410,10 +4496,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4424,7 +4510,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4433,16 +4519,16 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4493,19 +4579,19 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4525,10 +4611,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4536,7 +4622,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -4548,18 +4634,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4608,10 +4696,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>88</v>
@@ -4620,13 +4708,13 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -4640,14 +4728,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4663,20 +4751,18 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4725,7 +4811,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4737,13 +4823,13 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4757,46 +4843,42 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -4844,25 +4926,25 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -4876,10 +4958,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4887,10 +4969,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4899,16 +4981,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4935,43 +5017,41 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -4991,12 +5071,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5017,15 +5099,17 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5074,19 +5158,19 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5106,21 +5190,23 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5132,15 +5218,17 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5177,17 +5265,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5196,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>139</v>
@@ -5219,42 +5309,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5302,7 +5396,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5311,7 +5405,7 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>139</v>
@@ -5320,7 +5414,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5334,10 +5428,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5345,7 +5439,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -5357,16 +5451,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5393,13 +5487,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5417,10 +5511,10 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>88</v>
@@ -5429,7 +5523,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5449,10 +5543,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5463,7 +5557,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5472,20 +5566,18 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5534,19 +5626,19 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5566,10 +5658,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5577,10 +5669,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5592,13 +5684,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
+        <v>135</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5637,45 +5729,509 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO38" t="s" s="2">
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CompartmentDefinition.xlsx
+++ b/StructureDefinition-profile-CompartmentDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="290">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0345571-06:00</t>
+    <t>2026-02-17T14:42:26.7667609-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `CompartmentDefinition.versionAlgorithm[x]` is will have a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
+    <t>Element `CompartmentDefinition.versionAlgorithm[x]` has a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -488,7 +488,7 @@
     <t>A short, descriptive, user-friendly title for the capability statement.</t>
   </si>
   <si>
-    <t>Element `CompartmentDefinition.title` is will have a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
+    <t>Element `CompartmentDefinition.title` has a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
   </si>
   <si>
     <t>CompartmentDefinition.modifierExtension</t>
@@ -804,7 +804,7 @@
     <t>Cross-version extension for CompartmentDefinition.code from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `CompartmentDefinition.code` is mapped to FHIR R4 element `CompartmentDefinition.code`.</t>
+    <t>Element `CompartmentDefinition.code` has is mapped to FHIR R4 element `CompartmentDefinition.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>CompartmentDefinition.code.value</t>
@@ -853,42 +853,17 @@
     <t>CompartmentDefinition.resource.extension</t>
   </si>
   <si>
-    <t>CompartmentDefinition.resource.extension:startParam</t>
-  </si>
-  <si>
-    <t>startParam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource.startParam|0.0.1-snapshot-3}
+    <t>CompartmentDefinition.resource.extension:resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CompartmentDefinition.resource.startParam from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Search Parameter for mapping requests made with $everything.start (e.g. on [Patient.$everything](https://hl7.org/fhir/patient-operation-everything.html)).</t>
-  </si>
-  <si>
-    <t>Element `CompartmentDefinition.resource.startParam` is will have a context of CompartmentDefinition.resource based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
-  </si>
-  <si>
-    <t>CompartmentDefinition.resource.extension:endParam</t>
-  </si>
-  <si>
-    <t>endParam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource.endParam|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CompartmentDefinition.resource.endParam from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Search Parameter for mapping requests made with $everything.end (e.g. on [Patient.$everything](https://hl7.org/fhir/patient-operation-everything.html)).</t>
-  </si>
-  <si>
-    <t>Element `CompartmentDefinition.resource.endParam` is will have a context of CompartmentDefinition.resource based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
+    <t>Cross-version extension for CompartmentDefinition.resource from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CompartmentDefinition.resource` has is mapped to FHIR R4 element `CompartmentDefinition.resource`, but has no comparisons.</t>
   </si>
   <si>
     <t>CompartmentDefinition.resource.modifierExtension</t>
@@ -921,28 +896,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>CompartmentDefinition.resource.code.id</t>
-  </si>
-  <si>
-    <t>CompartmentDefinition.resource.code.extension</t>
-  </si>
-  <si>
-    <t>CompartmentDefinition.resource.code.extension:code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource.code|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CompartmentDefinition.resource.code from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CompartmentDefinition.resource.code` is mapped to FHIR R4 element `CompartmentDefinition.resource.code`.</t>
-  </si>
-  <si>
-    <t>CompartmentDefinition.resource.code.value</t>
   </si>
   <si>
     <t>CompartmentDefinition.resource.param</t>
@@ -1270,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1279,7 +1232,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.76171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1289,7 +1242,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.1953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.61328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5077,7 +5030,7 @@
         <v>268</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>78</v>
@@ -5087,7 +5040,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5099,16 +5052,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5190,46 +5143,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5277,7 +5230,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5286,7 +5239,7 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>139</v>
@@ -5295,7 +5248,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5309,46 +5262,42 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5372,13 +5321,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5396,25 +5345,25 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5428,10 +5377,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5439,10 +5388,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5454,15 +5403,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5487,13 +5438,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5511,13 +5462,13 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -5543,10 +5494,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5572,10 +5523,10 @@
         <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5626,7 +5577,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5638,7 +5589,7 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5653,585 +5604,6 @@
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC38" s="2"/>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO42" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CompartmentDefinition.xlsx
+++ b/StructureDefinition-profile-CompartmentDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7667609-06:00</t>
+    <t>2026-02-20T11:59:20.7609142-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CompartmentDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CompartmentDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,13 +449,33 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>CompartmentDefinition.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-title}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CompartmentDefinition.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CompartmentDefinition.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
+Element `CompartmentDefinition.title` has a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
+  </si>
+  <si>
     <t>CompartmentDefinition.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
@@ -465,30 +485,8 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `CompartmentDefinition.versionAlgorithm[x]` has a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CompartmentDefinition.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.title|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CompartmentDefinition.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the capability statement.</t>
-  </si>
-  <si>
-    <t>Element `CompartmentDefinition.title` has a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CompartmentDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `CompartmentDefinition.versionAlgorithm[x]` has a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
   </si>
   <si>
     <t>CompartmentDefinition.modifierExtension</t>
@@ -797,7 +795,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.code|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.code}
 </t>
   </si>
   <si>
@@ -805,6 +803,10 @@
   </si>
   <si>
     <t>Element `CompartmentDefinition.code` has is mapped to FHIR R4 element `CompartmentDefinition.code`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>CompartmentDefinition.code.value</t>
@@ -856,7 +858,7 @@
     <t>CompartmentDefinition.resource.extension:resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource}
 </t>
   </si>
   <si>
@@ -1242,7 +1244,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.61328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2427,7 +2429,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2450,13 +2452,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2478,16 +2480,16 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2546,7 +2548,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -2569,14 +2571,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2598,16 +2600,16 @@
         <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -2656,7 +2658,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2688,10 +2690,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2717,16 +2719,16 @@
         <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -2775,7 +2777,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>88</v>
@@ -2796,10 +2798,10 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -2807,10 +2809,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2833,16 +2835,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2892,7 +2894,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -2913,10 +2915,10 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -2924,10 +2926,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2950,19 +2952,19 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3011,7 +3013,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>88</v>
@@ -3020,7 +3022,7 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>100</v>
@@ -3043,10 +3045,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3072,13 +3074,13 @@
         <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3104,14 +3106,14 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3149,10 +3151,10 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3160,10 +3162,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3186,19 +3188,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3247,7 +3249,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3268,10 +3270,10 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3279,14 +3281,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3305,16 +3307,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3364,7 +3366,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3385,10 +3387,10 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3396,10 +3398,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3422,19 +3424,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3483,7 +3485,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3504,10 +3506,10 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3515,10 +3517,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3541,16 +3543,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3600,7 +3602,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3621,7 +3623,7 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3632,10 +3634,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3658,16 +3660,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3717,7 +3719,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3738,7 +3740,7 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -3749,10 +3751,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3775,19 +3777,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3836,7 +3838,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3857,7 +3859,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -3868,10 +3870,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3894,16 +3896,16 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3953,7 +3955,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3974,21 +3976,21 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4014,13 +4016,13 @@
         <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4046,14 +4048,14 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4070,7 +4072,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
@@ -4102,10 +4104,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4128,13 +4130,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4185,7 +4187,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4217,10 +4219,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4298,7 +4300,7 @@
         <v>137</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4330,13 +4332,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -4358,16 +4360,16 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4417,7 +4419,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4426,7 +4428,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>139</v>
@@ -4475,7 +4477,7 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>255</v>
@@ -4590,7 +4592,7 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>258</v>
@@ -4822,7 +4824,7 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>266</v>
@@ -4879,7 +4881,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4992,7 +4994,7 @@
         <v>137</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5111,7 +5113,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5120,7 +5122,7 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>139</v>
@@ -5178,10 +5180,10 @@
         <v>276</v>
       </c>
       <c r="N34" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5321,7 +5323,7 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y35" t="s" s="2">
         <v>281</v>
@@ -5403,7 +5405,7 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>284</v>
@@ -5520,7 +5522,7 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>288</v>

--- a/StructureDefinition-profile-CompartmentDefinition.xlsx
+++ b/StructureDefinition-profile-CompartmentDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="295">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7609142-06:00</t>
+    <t>2026-02-21T13:36:54.1665425-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CompartmentDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CompartmentDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -425,21 +425,21 @@
     <t>CompartmentDefinition.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -449,51 +449,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>CompartmentDefinition.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-title}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CompartmentDefinition.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CompartmentDefinition.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
-Element `CompartmentDefinition.title` has a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
-  </si>
-  <si>
-    <t>CompartmentDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CompartmentDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CompartmentDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `CompartmentDefinition.versionAlgorithm[x]` has a context of CompartmentDefinition based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
-  </si>
-  <si>
     <t>CompartmentDefinition.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -501,9 +457,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -786,6 +739,19 @@
     <t>CompartmentDefinition.code.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -795,14 +761,14 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.code}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.code|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for CompartmentDefinition.code from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `CompartmentDefinition.code` has is mapped to FHIR R4 element `CompartmentDefinition.code`, but has no comparisons.</t>
+    <t>Element `CompartmentDefinition.code` is mapped to FHIR R4 element `CompartmentDefinition.code` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -855,17 +821,42 @@
     <t>CompartmentDefinition.resource.extension</t>
   </si>
   <si>
-    <t>CompartmentDefinition.resource.extension:resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource}
+    <t>CompartmentDefinition.resource.extension:startParam</t>
+  </si>
+  <si>
+    <t>startParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource.startParam|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CompartmentDefinition.resource from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CompartmentDefinition.resource` has is mapped to FHIR R4 element `CompartmentDefinition.resource`, but has no comparisons.</t>
+    <t>Cross-version extension for CompartmentDefinition.resource.startParam from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Search Parameter for mapping requests made with $everything.start (e.g. on [Patient.$everything](https://hl7.org/fhir/patient-operation-everything.html)).</t>
+  </si>
+  <si>
+    <t>Element `CompartmentDefinition.resource.startParam` has a context of CompartmentDefinition.resource based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.resource.extension:endParam</t>
+  </si>
+  <si>
+    <t>endParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource.endParam|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CompartmentDefinition.resource.endParam from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Search Parameter for mapping requests made with $everything.end (e.g. on [Patient.$everything](https://hl7.org/fhir/patient-operation-everything.html)).</t>
+  </si>
+  <si>
+    <t>Element `CompartmentDefinition.resource.endParam` has a context of CompartmentDefinition.resource based on following the parent source element upwards and mapping to `CompartmentDefinition`.</t>
   </si>
   <si>
     <t>CompartmentDefinition.resource.modifierExtension</t>
@@ -898,6 +889,28 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.resource.code.id</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.resource.code.extension</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.resource.code.extension:code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CompartmentDefinition.resource.code|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CompartmentDefinition.resource.code from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CompartmentDefinition.resource.code` is mapped to FHIR R4 element `CompartmentDefinition.resource.code` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>CompartmentDefinition.resource.code.value</t>
   </si>
   <si>
     <t>CompartmentDefinition.resource.param</t>
@@ -1225,7 +1238,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1234,9 +1247,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.76171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1244,7 +1257,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2227,7 +2240,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2246,15 +2259,17 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2291,14 +2306,16 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2319,7 +2336,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2336,43 +2353,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2420,7 +2437,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2438,7 +2455,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2452,20 +2469,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -2477,21 +2492,23 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2539,19 +2556,19 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2560,10 +2577,10 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -2578,26 +2595,26 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>154</v>
@@ -2608,9 +2625,7 @@
       <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2658,31 +2673,31 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -2716,7 +2731,7 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>160</v>
@@ -2786,7 +2801,7 @@
         <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>100</v>
@@ -2798,10 +2813,10 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -2809,10 +2824,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2820,7 +2835,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
@@ -2829,22 +2844,22 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2870,13 +2885,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -2894,10 +2909,10 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>88</v>
@@ -2915,10 +2930,10 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -2926,10 +2941,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2937,7 +2952,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>88</v>
@@ -2952,19 +2967,19 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3013,16 +3028,16 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>100</v>
@@ -3034,10 +3049,10 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3045,18 +3060,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3065,22 +3080,22 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3106,13 +3121,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3130,10 +3145,10 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>88</v>
@@ -3151,10 +3166,10 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3162,10 +3177,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3188,7 +3203,7 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>190</v>
@@ -3197,10 +3212,10 @@
         <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3249,7 +3264,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3270,10 +3285,10 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3281,21 +3296,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3366,13 +3381,13 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
@@ -3390,7 +3405,7 @@
         <v>201</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3398,10 +3413,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3421,10 +3436,10 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>204</v>
@@ -3435,9 +3450,7 @@
       <c r="N19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3485,7 +3498,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3506,10 +3519,10 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3517,10 +3530,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3543,18 +3556,20 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3602,7 +3617,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3623,7 +3638,7 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3634,10 +3649,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3660,16 +3675,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3719,7 +3734,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3740,13 +3755,13 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -3762,10 +3777,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3777,20 +3792,18 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3814,13 +3827,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -3841,10 +3854,10 @@
         <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -3859,7 +3872,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -3870,10 +3883,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3896,17 +3909,15 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3955,7 +3966,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3967,7 +3978,7 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -3976,21 +3987,21 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4001,7 +4012,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4010,20 +4021,18 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4048,43 +4057,41 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4104,18 +4111,20 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4130,15 +4139,17 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4187,19 +4198,19 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4219,10 +4230,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4230,10 +4241,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4245,13 +4256,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4290,29 +4301,31 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4332,14 +4345,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4357,19 +4368,19 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4422,16 +4433,16 @@
         <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -4451,10 +4462,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4465,7 +4476,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4474,16 +4485,16 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4534,19 +4545,19 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4566,10 +4577,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4577,7 +4588,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -4589,20 +4600,18 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4651,10 +4660,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>88</v>
@@ -4663,13 +4672,13 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -4683,10 +4692,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4706,16 +4715,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4754,19 +4763,17 @@
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4778,7 +4785,7 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4798,12 +4805,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>78</v>
       </c>
@@ -4824,15 +4833,17 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4881,25 +4892,25 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -4913,12 +4924,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>78</v>
       </c>
@@ -4927,7 +4940,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4939,15 +4952,17 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -4984,17 +4999,19 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5003,7 +5020,7 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>139</v>
@@ -5026,16 +5043,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>29</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5048,24 +5063,26 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5113,7 +5130,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5122,7 +5139,7 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>139</v>
@@ -5131,7 +5148,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5145,46 +5162,42 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5208,13 +5221,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5232,25 +5245,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5264,10 +5277,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5275,7 +5288,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5287,16 +5300,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5323,13 +5336,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5347,10 +5360,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>88</v>
@@ -5359,7 +5372,7 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5379,10 +5392,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5390,7 +5403,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -5402,20 +5415,18 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5452,19 +5463,17 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5476,7 +5485,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5496,18 +5505,20 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -5522,15 +5533,17 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5579,33 +5592,380 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="B38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>78</v>
       </c>
     </row>
